--- a/Combined_datasets/14-OM-datasets/University_authentic_dataset_no_space.xlsx
+++ b/Combined_datasets/14-OM-datasets/University_authentic_dataset_no_space.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rashedhasan/Desktop/UNL/Research/Object relational mapping/Step 5 - Abstraction/OM-Solution_Mapping/OM-ML_Research/University/dataset2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rashedhasan/Desktop/UNL/Research/Object relational mapping/Step 5 - Abstraction/OM-Solution_Mapping/OM-ML_Research/Combined_datasets/14-OM-datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2FD7EE-B0EA-5547-8142-DC899DF546FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A873F7A-65B8-E145-89C0-B746CCBD9614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16320" xr2:uid="{C571DF1E-96F1-4C4B-9943-E555245EFDA2}"/>
   </bookViews>
@@ -576,7 +576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC25649-7E87-1549-8AEF-1D6A900F91D9}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>

--- a/Combined_datasets/14-OM-datasets/University_authentic_dataset_no_space.xlsx
+++ b/Combined_datasets/14-OM-datasets/University_authentic_dataset_no_space.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rashedhasan/Desktop/UNL/Research/Object relational mapping/Step 5 - Abstraction/OM-Solution_Mapping/OM-ML_Research/Combined_datasets/14-OM-datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A873F7A-65B8-E145-89C0-B746CCBD9614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F1AA8A-5173-4741-9F03-B84A141D921A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16320" xr2:uid="{C571DF1E-96F1-4C4B-9943-E555245EFDA2}"/>
   </bookViews>
@@ -577,7 +577,7 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
